--- a/docs/odh/shr-core-TaxIdentificationNumber-model.xlsx
+++ b/docs/odh/shr-core-TaxIdentificationNumber-model.xlsx
@@ -147,7 +147,7 @@
 </t>
   </si>
   <si>
-    <t>An id for the item expresse as a string.</t>
+    <t>An id for the item expressed as a string.</t>
   </si>
   <si>
     <t>shr-core-TaxIdentificationNumber-model.purpose</t>
@@ -157,7 +157,7 @@
 </t>
   </si>
   <si>
-    <t>What it should be used for.</t>
+    <t>Description of the intent or use of the item.</t>
   </si>
   <si>
     <t>required</t>
@@ -328,7 +328,7 @@
     <t>shr-core-TaxIdentificationNumber-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
